--- a/login.xlsx
+++ b/login.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ajay Sharma\Documents\UiPath\testDemo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ajay Sharma\Documents\UiPath\BooksWagon Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A9902E-8E0E-47E7-BCA1-5321D680FAB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975A6E7F-6A2F-4B97-8477-701F83B767AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="390" windowWidth="12675" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="390" windowWidth="17655" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Username</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>asfsdsfs</t>
   </si>
 </sst>
 </file>
@@ -386,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,9 +455,29 @@
         <v>1000</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -462,6 +485,7 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{6D42A845-60E5-4640-9AB6-4DCDD15B3950}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{3505A936-9D36-410C-9C80-0C3420AA308E}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{72202200-67D1-4305-B8BF-87F96A865122}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/login.xlsx
+++ b/login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ajay Sharma\Documents\UiPath\BooksWagon Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975A6E7F-6A2F-4B97-8477-701F83B767AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D485D7D9-C912-4DA8-A256-495DDC4436C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="390" windowWidth="17655" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Username</t>
   </si>
@@ -60,7 +60,12 @@
     <t>Harry Potter</t>
   </si>
   <si>
-    <t>asfsdsfs</t>
+    <t xml:space="preserve">
+Circles of Hell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+adsfgbfg</t>
   </si>
 </sst>
 </file>
@@ -105,9 +110,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -389,16 +397,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -435,7 +444,7 @@
         <v>1000</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -461,14 +470,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4">
@@ -478,6 +487,26 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -486,6 +515,7 @@
     <hyperlink ref="A2" r:id="rId1" xr:uid="{6D42A845-60E5-4640-9AB6-4DCDD15B3950}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{3505A936-9D36-410C-9C80-0C3420AA308E}"/>
     <hyperlink ref="A4" r:id="rId3" xr:uid="{72202200-67D1-4305-B8BF-87F96A865122}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{B9BE9453-2EDD-4A37-8AA7-15F53EEC35B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/login.xlsx
+++ b/login.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ajay Sharma\Documents\UiPath\BooksWagon Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D485D7D9-C912-4DA8-A256-495DDC4436C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3821B2-369A-424F-8BED-185539757844}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="390" windowWidth="17655" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="390" windowWidth="23595" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,7 +400,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +464,7 @@
         <v>1000</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
